--- a/data/scheduling_DNN/predict/0.1/result7.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result7.xlsx
@@ -570,10 +570,10 @@
         <v>1.533943176269531</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4764547348022461</v>
       </c>
       <c r="W2" t="n">
-        <v>1.156637191772461</v>
+        <v>1.118281841278076</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8980898857116699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4868912100791931</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07518686354160309</v>
+        <v>0.1690843552350998</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9120159149169922</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4889503121376038</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1124155148863792</v>
+        <v>0.1789845079183578</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9663500785827637</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4958252310752869</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1206254437565804</v>
+        <v>0.2213936299085617</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>1.027582168579102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4783203601837158</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1627657562494278</v>
+        <v>0.3016885221004486</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9149379730224609</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.926641047000885</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1666914075613022</v>
+        <v>0.0001369619421893731</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9395229816436768</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5325963497161865</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1374653428792953</v>
+        <v>0.1655892878770828</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8949239253997803</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9500979781150818</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1175228878855705</v>
+        <v>0.003044176148250699</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>1.169718027114868</v>
       </c>
       <c r="V10" t="n">
-        <v>0.475897878408432</v>
+        <v>0.8683845400810242</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4813863635063171</v>
+        <v>0.09080187231302261</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>1.052884101867676</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9022243022918701</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3809362947940826</v>
+        <v>0.02269837446510792</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9132480621337891</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4783396124839783</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2017099410295486</v>
+        <v>0.1891453564167023</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9954349994659424</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.958844780921936</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3759032189846039</v>
+        <v>0.001338844071142375</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8828930854797363</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4785922765731812</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1798246502876282</v>
+        <v>0.1634591370820999</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9147679805755615</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5479493737220764</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2288631349802017</v>
+        <v>0.1345558911561966</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8727419376373291</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4669782519340515</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1030505523085594</v>
+        <v>0.1646441668272018</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9279849529266357</v>
       </c>
       <c r="V17" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5479323863983154</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1287875324487686</v>
+        <v>0.1444399505853653</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683798313140869</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5354323983192444</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1349520534276962</v>
+        <v>0.1108539924025536</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8622329235076904</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.9374268054962158</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1816511899232864</v>
+        <v>0.00565411988645792</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8987619876861572</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9615468978881836</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1946677416563034</v>
+        <v>0.003941944800317287</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8973128795623779</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5355383157730103</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1544698029756546</v>
+        <v>0.1308808326721191</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5316481590270996</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.946524441242218</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001582431024871767</v>
+        <v>0.1721223294734955</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5390350818634033</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4717931151390076</v>
       </c>
       <c r="W23" t="n">
-        <v>0.008156677708029747</v>
+        <v>0.004521482158452272</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233860015869141</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.9472381472587585</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01043753791600466</v>
+        <v>0.1796506345272064</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.525547981262207</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4733955264091492</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01718600653111935</v>
+        <v>0.002719878451898694</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6153900623321533</v>
       </c>
       <c r="V26" t="n">
-        <v>0.551807165145874</v>
+        <v>0.9854418635368347</v>
       </c>
       <c r="W26" t="n">
-        <v>0.004042784683406353</v>
+        <v>0.1369383335113525</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5191471576690674</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5095062255859375</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0003164317749906331</v>
+        <v>9.294757182942703e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5166261196136475</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4769517779350281</v>
       </c>
       <c r="W28" t="n">
-        <v>0.006498453672975302</v>
+        <v>0.001574053429067135</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253958702087402</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5325362086296082</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08223606646060944</v>
+        <v>5.098443216411397e-05</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5260128974914551</v>
       </c>
       <c r="V30" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.5086966753005981</v>
       </c>
       <c r="W30" t="n">
-        <v>0.08437594026327133</v>
+        <v>0.0002998515556100756</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5728950500488281</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4878190159797668</v>
       </c>
       <c r="W31" t="n">
-        <v>0.002626071916893125</v>
+        <v>0.007237931713461876</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.863635778427124</v>
       </c>
       <c r="W32" t="n">
-        <v>0.009047579020261765</v>
+        <v>0.09921031445264816</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.472528338432312</v>
       </c>
       <c r="W33" t="n">
-        <v>0.002609749790281057</v>
+        <v>0.001994491787627339</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5242109298706055</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.5355178713798523</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02552649565041065</v>
+        <v>0.0001278469280805439</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184760093688965</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.478813111782074</v>
       </c>
       <c r="W35" t="n">
-        <v>0.00686498312279582</v>
+        <v>0.001573145389556885</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5693509578704834</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4800154566764832</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06120017543435097</v>
+        <v>0.007980831898748875</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5175681114196777</v>
       </c>
       <c r="V37" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4902541637420654</v>
       </c>
       <c r="W37" t="n">
-        <v>0.003518360666930676</v>
+        <v>0.0007460517226718366</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.537492036819458</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4917599558830261</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006742094177752733</v>
+        <v>0.002091423142701387</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5170531272888184</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4674074053764343</v>
       </c>
       <c r="W39" t="n">
-        <v>0.003413436468690634</v>
+        <v>0.002464697696268559</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5142741203308105</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4748392701148987</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002673043636605144</v>
+        <v>0.00155510741751641</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5149941444396973</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5480300784111023</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001988270319998264</v>
+        <v>0.001091372920200229</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3989667892456055</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4809644818305969</v>
       </c>
       <c r="W42" t="n">
-        <v>0.110701359808445</v>
+        <v>0.006723621394485235</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.416985034942627</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4917925000190735</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05763359740376472</v>
+        <v>0.005596156697720289</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.389503002166748</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5356723070144653</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0249354150146246</v>
+        <v>0.02136546559631824</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.391016960144043</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4864767789840698</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05227110907435417</v>
+        <v>0.009112576954066753</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3963840007781982</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4791365265846252</v>
       </c>
       <c r="W46" t="n">
-        <v>0.003750617150217295</v>
+        <v>0.006847980432212353</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3975908756256104</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5478847026824951</v>
       </c>
       <c r="W47" t="n">
-        <v>0.003212263574823737</v>
+        <v>0.02258823439478874</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.402508020401001</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9321751594543457</v>
       </c>
       <c r="W48" t="n">
-        <v>0.04689756408333778</v>
+        <v>0.2805472910404205</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389617919921875</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5489591956138611</v>
       </c>
       <c r="W49" t="n">
-        <v>8.890675235306844e-05</v>
+        <v>0.02538964152336121</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3887062072753906</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8812585473060608</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0126532893627882</v>
+        <v>0.2426078021526337</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4746830463409424</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5191791653633118</v>
       </c>
       <c r="W51" t="n">
-        <v>0.001515681738965213</v>
+        <v>0.001979904714971781</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3975591659545898</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4709535837173462</v>
       </c>
       <c r="W52" t="n">
-        <v>0.04804676398634911</v>
+        <v>0.005386740434914827</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3944377899169922</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.881467878818512</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0002381328376941383</v>
+        <v>0.2371983081102371</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3912239074707031</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.463697612285614</v>
       </c>
       <c r="W54" t="n">
-        <v>0.00561448885127902</v>
+        <v>0.00525243766605854</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3905239105224609</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.5077497363090515</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01280656456947327</v>
+        <v>0.01374189462512732</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3893418312072754</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9962939620018005</v>
       </c>
       <c r="W56" t="n">
-        <v>0.002179242437705398</v>
+        <v>0.3683908879756927</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3903648853302002</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5015746355056763</v>
       </c>
       <c r="W57" t="n">
-        <v>0.006819358095526695</v>
+        <v>0.01236760895699263</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3899099826812744</v>
       </c>
       <c r="V58" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.8875393271446228</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0001114356928155757</v>
+        <v>0.2476349622011185</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3862488269805908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.509823739528656</v>
       </c>
       <c r="W59" t="n">
-        <v>0.004756169393658638</v>
+        <v>0.01527075935155153</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4112091064453125</v>
       </c>
       <c r="V60" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.9649090766906738</v>
       </c>
       <c r="W60" t="n">
-        <v>0.09857092797756195</v>
+        <v>0.3065836429595947</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3894948959350586</v>
       </c>
       <c r="V61" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5478924512863159</v>
       </c>
       <c r="W61" t="n">
-        <v>0.03483343124389648</v>
+        <v>0.02508978545665741</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.148676872253418</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.9576438665390015</v>
       </c>
       <c r="W62" t="n">
-        <v>0.5078787803649902</v>
+        <v>0.03649361059069633</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699791431427002</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9116472601890564</v>
       </c>
       <c r="W63" t="n">
-        <v>0.135571762919426</v>
+        <v>0.001736231963150203</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9214279651641846</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5550152659416199</v>
       </c>
       <c r="W64" t="n">
-        <v>0.08847462385892868</v>
+        <v>0.1342582702636719</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8724958896636963</v>
       </c>
       <c r="V65" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4670462012290955</v>
       </c>
       <c r="W65" t="n">
-        <v>0.04491095617413521</v>
+        <v>0.1643894463777542</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.866657018661499</v>
       </c>
       <c r="V66" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4859219789505005</v>
       </c>
       <c r="W66" t="n">
-        <v>0.01685195975005627</v>
+        <v>0.1449591666460037</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.86651611328125</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.4975371956825256</v>
       </c>
       <c r="W67" t="n">
-        <v>0.08435273915529251</v>
+        <v>0.1361454427242279</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9416589736938477</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4788737297058105</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1984284669160843</v>
+        <v>0.2141701877117157</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8710658550262451</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.9268133044242859</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1207671612501144</v>
+        <v>0.003107778029516339</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8649971485137939</v>
       </c>
       <c r="V70" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9853051900863647</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1476408392190933</v>
+        <v>0.01447402499616146</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8691041469573975</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9497696757316589</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02080284617841244</v>
+        <v>0.006506927311420441</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9233388900756836</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4978564977645874</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2378674745559692</v>
+        <v>0.1810352653264999</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8746638298034668</v>
       </c>
       <c r="V73" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.9855043888092041</v>
       </c>
       <c r="W73" t="n">
-        <v>0.01906783133745193</v>
+        <v>0.0122856292873621</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.86319899559021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9333285689353943</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1772235333919525</v>
+        <v>0.004918157123029232</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.874953031539917</v>
       </c>
       <c r="V75" t="n">
-        <v>0.624285101890564</v>
+        <v>0.883971631526947</v>
       </c>
       <c r="W75" t="n">
-        <v>0.06283441185951233</v>
+        <v>8.133514347719029e-05</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9410128593444824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4730017185211182</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1050653979182243</v>
+        <v>0.2190344333648682</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5479492545127869</v>
       </c>
       <c r="W77" t="n">
-        <v>0.09293758124113083</v>
+        <v>0.106163814663887</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8663449287414551</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4982514381408691</v>
       </c>
       <c r="W78" t="n">
-        <v>0.05810274928808212</v>
+        <v>0.135492816567421</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8819448947906494</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.4780861735343933</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2530803680419922</v>
+        <v>0.1631018668413162</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9179439544677734</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4707398414611816</v>
       </c>
       <c r="W80" t="n">
-        <v>0.01037590578198433</v>
+        <v>0.1999915242195129</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8630130290985107</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4914112687110901</v>
       </c>
       <c r="W81" t="n">
-        <v>0.06674965471029282</v>
+        <v>0.1380878686904907</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5750439167022705</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9480940699577332</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01932820864021778</v>
+        <v>0.1391664147377014</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5325441360473633</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.547864556312561</v>
       </c>
       <c r="W83" t="n">
-        <v>0.006003356538712978</v>
+        <v>0.0002347152767470106</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5314269065856934</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9931328892707825</v>
       </c>
       <c r="W84" t="n">
-        <v>0.003676408203318715</v>
+        <v>0.2131724208593369</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5200700759887695</v>
       </c>
       <c r="V85" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.478792130947113</v>
       </c>
       <c r="W85" t="n">
-        <v>0.01155634317547083</v>
+        <v>0.001703868736512959</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5169711112976074</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4867687225341797</v>
       </c>
       <c r="W86" t="n">
-        <v>0.009333591908216476</v>
+        <v>0.0009121843031607568</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5351670384407043</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001104288850910962</v>
+        <v>0.0004086885892320424</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5150988101959229</v>
       </c>
       <c r="V88" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4745295643806458</v>
       </c>
       <c r="W88" t="n">
-        <v>0.09490980952978134</v>
+        <v>0.001645863754674792</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5172140598297119</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.8847069144248962</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02063708566129208</v>
+        <v>0.1350509971380234</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5482549667358398</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.4761816263198853</v>
       </c>
       <c r="W90" t="n">
-        <v>0.005226572975516319</v>
+        <v>0.005194566212594509</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5184290409088135</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.9391223788261414</v>
       </c>
       <c r="W91" t="n">
-        <v>0.002703970763832331</v>
+        <v>0.1769828796386719</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.516981840133667</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.9730889797210693</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003144336165860295</v>
+        <v>0.2080337256193161</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5209181308746338</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4793004393577576</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0009886622428894043</v>
+        <v>0.001732032280415297</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5173120498657227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9091030955314636</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001295481692068279</v>
+        <v>0.1535002291202545</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5817880630493164</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9041080474853516</v>
       </c>
       <c r="W95" t="n">
-        <v>0.001077057560905814</v>
+        <v>0.103890173137188</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5193848609924316</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9380168318748474</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01983004435896873</v>
+        <v>0.1752527207136154</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5212528705596924</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4747527837753296</v>
       </c>
       <c r="W97" t="n">
-        <v>0.087164007127285</v>
+        <v>0.002162258140742779</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.518949031829834</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.5637809634208679</v>
       </c>
       <c r="W98" t="n">
-        <v>0.006858663633465767</v>
+        <v>0.002009902149438858</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5210399627685547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.9218447208404541</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02030559070408344</v>
+        <v>0.160644456744194</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203490257263184</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5191811323165894</v>
       </c>
       <c r="W100" t="n">
-        <v>0.001103104674257338</v>
+        <v>1.363975002277584e-06</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5205750465393066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.9534777998924255</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01597948931157589</v>
+        <v>0.1874047964811325</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4002079963684082</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5042063593864441</v>
       </c>
       <c r="W102" t="n">
-        <v>0.001282421872019768</v>
+        <v>0.01081565953791142</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4022829532623291</v>
       </c>
       <c r="V103" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4671902656555176</v>
       </c>
       <c r="W103" t="n">
-        <v>0.02752411179244518</v>
+        <v>0.004212959203869104</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V104" t="n">
-        <v>0.471180647611618</v>
+        <v>0.8758355975151062</v>
       </c>
       <c r="W104" t="n">
-        <v>0.006129914429038763</v>
+        <v>0.233239471912384</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4001638889312744</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4766852855682373</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02307264879345894</v>
+        <v>0.005855523981153965</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3876640796661377</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4824785590171814</v>
       </c>
       <c r="W106" t="n">
-        <v>0.004885361064225435</v>
+        <v>0.008989785797894001</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3897330760955811</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5189201831817627</v>
       </c>
       <c r="W107" t="n">
-        <v>1.329778029912632e-07</v>
+        <v>0.01668930798768997</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3909368515014648</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.8845714926719666</v>
       </c>
       <c r="W108" t="n">
-        <v>0.002628867281600833</v>
+        <v>0.2436751574277878</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3894879817962646</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.883314311504364</v>
       </c>
       <c r="W109" t="n">
-        <v>0.004652019590139389</v>
+        <v>0.2438644468784332</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3887388706207275</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5181623697280884</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004204197321087122</v>
+        <v>0.01675044186413288</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.394212007522583</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9495526552200317</v>
       </c>
       <c r="W111" t="n">
-        <v>0.004130118060857058</v>
+        <v>0.3084032237529755</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4121630191802979</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5536474585533142</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01919234916567802</v>
+        <v>0.0200178474187851</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3938138484954834</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.9312167763710022</v>
       </c>
       <c r="W113" t="n">
-        <v>0.004112126771360636</v>
+        <v>0.288801908493042</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.396996021270752</v>
       </c>
       <c r="V114" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4696686267852783</v>
       </c>
       <c r="W114" t="n">
-        <v>0.00152246979996562</v>
+        <v>0.005281307734549046</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3917551040649414</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5130172967910767</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0548258014023304</v>
+        <v>0.01470451895147562</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.391571044921875</v>
       </c>
       <c r="V116" t="n">
-        <v>0.474732518196106</v>
+        <v>0.8821430802345276</v>
       </c>
       <c r="W116" t="n">
-        <v>0.006915830541402102</v>
+        <v>0.2406609207391739</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3921539783477783</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5478889942169189</v>
       </c>
       <c r="W117" t="n">
-        <v>0.07070770114660263</v>
+        <v>0.02425339445471764</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4153850078582764</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4745030999183655</v>
       </c>
       <c r="W118" t="n">
-        <v>0.007777237799018621</v>
+        <v>0.003494948847219348</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3929860591888428</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.4833145141601562</v>
       </c>
       <c r="W119" t="n">
-        <v>0.004299916792660952</v>
+        <v>0.008159229531884193</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3940401077270508</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.5204311013221741</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02421590872108936</v>
+        <v>0.01597468368709087</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932180404663086</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4787741899490356</v>
       </c>
       <c r="W121" t="n">
-        <v>0.001808448578231037</v>
+        <v>0.007319854572415352</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8687918186187744</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.535592257976532</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1579308956861496</v>
+        <v>0.11102195084095</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8998880386352539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.4725630879402161</v>
       </c>
       <c r="W123" t="n">
-        <v>0.07625269144773483</v>
+        <v>0.1826066076755524</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8713300228118896</v>
       </c>
       <c r="V124" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.8831245303153992</v>
       </c>
       <c r="W124" t="n">
-        <v>0.003017563838511705</v>
+        <v>0.0001391104015056044</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8762388229370117</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8945140838623047</v>
       </c>
       <c r="W125" t="n">
-        <v>0.07580933719873428</v>
+        <v>0.0003339851682540029</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8768019676208496</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.50672847032547</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1049123555421829</v>
+        <v>0.1369543969631195</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8773062229156494</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.483515739440918</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1688636243343353</v>
+        <v>0.1550709456205368</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8693480491638184</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4877368807792664</v>
       </c>
       <c r="W128" t="n">
-        <v>0.03406580537557602</v>
+        <v>0.1456270813941956</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8671379089355469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.510675847530365</v>
       </c>
       <c r="W129" t="n">
-        <v>0.06883169710636139</v>
+        <v>0.1270651966333389</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8761179447174072</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.8916324973106384</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1697044968605042</v>
+        <v>0.0002407013380434364</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.86661696434021</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5354863405227661</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1705890297889709</v>
+        <v>0.1096474900841713</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8735339641571045</v>
       </c>
       <c r="V132" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5228742957115173</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1577324867248535</v>
+        <v>0.1229622066020966</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8853759765625</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.5478842258453369</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1471752971410751</v>
+        <v>0.1139006838202477</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8667550086975098</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4851639866828918</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1443858593702316</v>
+        <v>0.1456117033958435</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9346470832824707</v>
       </c>
       <c r="V135" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5323261022567749</v>
       </c>
       <c r="W135" t="n">
-        <v>0.04034814983606339</v>
+        <v>0.1618621647357941</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8702070713043213</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4703709483146667</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1883229315280914</v>
+        <v>0.1598689258098602</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.874222993850708</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4894133806228638</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1051417589187622</v>
+        <v>0.148078441619873</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8667788505554199</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.9659309387207031</v>
       </c>
       <c r="W138" t="n">
-        <v>0.05700809881091118</v>
+        <v>0.009831137023866177</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9381630420684814</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4834895133972168</v>
       </c>
       <c r="W139" t="n">
-        <v>0.08374068886041641</v>
+        <v>0.2067280113697052</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8753669261932373</v>
       </c>
       <c r="V140" t="n">
-        <v>0.812067985534668</v>
+        <v>0.5024876594543457</v>
       </c>
       <c r="W140" t="n">
-        <v>0.004006756003946066</v>
+        <v>0.1390389502048492</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8740010261535645</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.8941027522087097</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1754523515701294</v>
+        <v>0.0004040793864987791</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5412149429321289</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.9901703596115112</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006964870728552341</v>
+        <v>0.2015609592199326</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5235650539398193</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4790151715278625</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01821759529411793</v>
+        <v>0.001984691945835948</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5222420692443848</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.9236649870872498</v>
       </c>
       <c r="W144" t="n">
-        <v>0.002910584444180131</v>
+        <v>0.1611403524875641</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5218429565429688</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8739950656890869</v>
       </c>
       <c r="W145" t="n">
-        <v>0.009910085238516331</v>
+        <v>0.1240111067891121</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5231330394744873</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9281376600265503</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0123047698289156</v>
+        <v>0.1640287488698959</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5505208969116211</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4793300032615662</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0002219611196778715</v>
+        <v>0.005068143364042044</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5306670665740967</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4761635065078735</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003040198236703873</v>
+        <v>0.002970637986436486</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5736639499664307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.8834096789360046</v>
       </c>
       <c r="W149" t="n">
-        <v>0.005194428842514753</v>
+        <v>0.0959424152970314</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5320158004760742</v>
       </c>
       <c r="V150" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4909481406211853</v>
       </c>
       <c r="W150" t="n">
-        <v>0.04263276979327202</v>
+        <v>0.001686552655883133</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210921764373779</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.547944962978363</v>
       </c>
       <c r="W151" t="n">
-        <v>0.004460953641682863</v>
+        <v>0.0007210721378214657</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5172209739685059</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9369950294494629</v>
       </c>
       <c r="W152" t="n">
-        <v>0.000469962862553075</v>
+        <v>0.1762102544307709</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5192840099334717</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4670335650444031</v>
       </c>
       <c r="W153" t="n">
-        <v>0.00203512329608202</v>
+        <v>0.002730109030380845</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5420777797698975</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.952562689781189</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01032843347638845</v>
+        <v>0.1684978604316711</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5242021083831787</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4667778611183167</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01802733168005943</v>
+        <v>0.003297544084489346</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.52451491355896</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4789026379585266</v>
       </c>
       <c r="W156" t="n">
-        <v>0.007829991169273853</v>
+        <v>0.002080479636788368</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.571666955947876</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9059286117553711</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01116500329226255</v>
+        <v>0.1117308512330055</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5241310596466064</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4889659285545349</v>
       </c>
       <c r="W158" t="n">
-        <v>0.002520394511520863</v>
+        <v>0.001236586482264102</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5217080116271973</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5324888825416565</v>
       </c>
       <c r="W159" t="n">
-        <v>0.002353360410779715</v>
+        <v>0.0001162271801149473</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5251271724700928</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9372644424438477</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0007113386527635157</v>
+        <v>0.1698571294546127</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5218539237976074</v>
       </c>
       <c r="V161" t="n">
-        <v>0.618610143661499</v>
+        <v>0.4854916930198669</v>
       </c>
       <c r="W161" t="n">
-        <v>0.009361766278743744</v>
+        <v>0.001322211814112961</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3973138332366943</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4800248146057129</v>
       </c>
       <c r="W162" t="n">
-        <v>0.05140621587634087</v>
+        <v>0.006841106340289116</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4021990299224854</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.8791239857673645</v>
       </c>
       <c r="W163" t="n">
-        <v>0.001148480223491788</v>
+        <v>0.2274574190378189</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3928890228271484</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4795999526977539</v>
       </c>
       <c r="W164" t="n">
-        <v>0.006728284992277622</v>
+        <v>0.007518785540014505</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.39375901222229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.624763011932373</v>
+        <v>0.8808121681213379</v>
       </c>
       <c r="W165" t="n">
-        <v>0.05336284637451172</v>
+        <v>0.2372207790613174</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3928210735321045</v>
       </c>
       <c r="V166" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9165478944778442</v>
       </c>
       <c r="W166" t="n">
-        <v>0.001866779639385641</v>
+        <v>0.2742897868156433</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3963360786437988</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.8873316049575806</v>
       </c>
       <c r="W167" t="n">
-        <v>0.178409069776535</v>
+        <v>0.2410766035318375</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3914539813995361</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.9854893088340759</v>
       </c>
       <c r="W168" t="n">
-        <v>0.003889255225658417</v>
+        <v>0.3528779745101929</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3949759006500244</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.8819279074668884</v>
       </c>
       <c r="W169" t="n">
-        <v>0.04953812062740326</v>
+        <v>0.2371222525835037</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.395698070526123</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4881001710891724</v>
       </c>
       <c r="W170" t="n">
-        <v>0.001625998760573566</v>
+        <v>0.008538148365914822</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3914849758148193</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.479097843170166</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02891206555068493</v>
+        <v>0.007676014676690102</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3960590362548828</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4781723022460938</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02450831048190594</v>
+        <v>0.006742588244378567</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3936629295349121</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4670378565788269</v>
       </c>
       <c r="W173" t="n">
-        <v>0.05310342833399773</v>
+        <v>0.005383879877626896</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4216320514678955</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5355648994445801</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001953305676579475</v>
+        <v>0.01298069395124912</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930389881134033</v>
       </c>
       <c r="V175" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.5101518034934998</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1849810630083084</v>
+        <v>0.01371541153639555</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3976650238037109</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5358355641365051</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03013603575527668</v>
+        <v>0.01909109763801098</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4102790355682373</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5539063811302185</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002939271042123437</v>
+        <v>0.02062881365418434</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4781859517097473</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001573682180605829</v>
+        <v>0.006696123629808426</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3977768421173096</v>
       </c>
       <c r="V179" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5063331723213196</v>
       </c>
       <c r="W179" t="n">
-        <v>0.1128889247775078</v>
+        <v>0.01178447715938091</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3955609798431396</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5357514619827271</v>
       </c>
       <c r="W180" t="n">
-        <v>0.02432098239660263</v>
+        <v>0.01965337060391903</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4182510375976562</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.4672995805740356</v>
       </c>
       <c r="W181" t="n">
-        <v>0.000306289060972631</v>
+        <v>0.002405759645625949</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8804221153259277</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5533537864685059</v>
       </c>
       <c r="W182" t="n">
-        <v>0.06546603143215179</v>
+        <v>0.1069736927747726</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9244890213012695</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9086501002311707</v>
       </c>
       <c r="W183" t="n">
-        <v>0.08798816800117493</v>
+        <v>0.0002508714096620679</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8728549480438232</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5259103775024414</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1585355252027512</v>
+        <v>0.1203705370426178</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.882908821105957</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.9139344096183777</v>
       </c>
       <c r="W185" t="n">
-        <v>0.06686027348041534</v>
+        <v>0.000962587131652981</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8713791370391846</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.4783626794815063</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1706597656011581</v>
+        <v>0.1544619351625443</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9311480522155762</v>
       </c>
       <c r="V187" t="n">
-        <v>0.43533855676651</v>
+        <v>0.948824942111969</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2458270490169525</v>
+        <v>0.0003124724316876382</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8714909553527832</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.9041221141815186</v>
       </c>
       <c r="W188" t="n">
-        <v>0.09126380085945129</v>
+        <v>0.001064792508259416</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8738999366760254</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5500336885452271</v>
       </c>
       <c r="W189" t="n">
-        <v>0.06226270273327827</v>
+        <v>0.1048893481492996</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8699369430541992</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4852591753005981</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2381690144538879</v>
+        <v>0.1479769796133041</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405331611633301</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.4974098801612854</v>
       </c>
       <c r="W191" t="n">
-        <v>0.08036607503890991</v>
+        <v>0.196358248591423</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8693850040435791</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.5061558485031128</v>
       </c>
       <c r="W192" t="n">
-        <v>0.06240425258874893</v>
+        <v>0.1319354176521301</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742671012878418</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4947530031204224</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1022404134273529</v>
+        <v>0.1440309435129166</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8682360649108887</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5039271116256714</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1868069022893906</v>
+        <v>0.1327210068702698</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8788471221923828</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.4674269556999207</v>
       </c>
       <c r="W195" t="n">
-        <v>0.131606712937355</v>
+        <v>0.169266551733017</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8665859699249268</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.9322080016136169</v>
       </c>
       <c r="W196" t="n">
-        <v>0.002988701919093728</v>
+        <v>0.004306251183152199</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695170879364014</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.4875155091285706</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1339419484138489</v>
+        <v>0.1459252089262009</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8691279888153076</v>
       </c>
       <c r="V198" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.4897500276565552</v>
       </c>
       <c r="W198" t="n">
-        <v>0.01866998709738255</v>
+        <v>0.1439276337623596</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8768620491027832</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4670073390007019</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1387888938188553</v>
+        <v>0.1679808795452118</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8661148548126221</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.8713752627372742</v>
       </c>
       <c r="W200" t="n">
-        <v>0.166402742266655</v>
+        <v>2.767189107544255e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8832371234893799</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4767927527427673</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1436996608972549</v>
+        <v>0.165197029709816</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5254499912261963</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5321728587150574</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0004624931607395411</v>
+        <v>4.51969463028945e-05</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5625450611114502</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4817125201225281</v>
       </c>
       <c r="W203" t="n">
-        <v>0.009309761226177216</v>
+        <v>0.006533899810165167</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.6333870887756348</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.5063676834106445</v>
       </c>
       <c r="W204" t="n">
-        <v>7.878912583691999e-05</v>
+        <v>0.01613392867147923</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5219728946685791</v>
       </c>
       <c r="V205" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9528983235359192</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0002743348886724561</v>
+        <v>0.1856967210769653</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240390300750732</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4916940927505493</v>
       </c>
       <c r="W206" t="n">
-        <v>0.004425371065735817</v>
+        <v>0.001046194927766919</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5217218399047852</v>
       </c>
       <c r="V207" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9085692763328552</v>
       </c>
       <c r="W207" t="n">
-        <v>0.08424558490514755</v>
+        <v>0.1496509462594986</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.576171875</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.497505784034729</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01964148320257664</v>
+        <v>0.00618835398927331</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5206000804901123</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4882715940475464</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0100786704570055</v>
+        <v>0.001045131008140743</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5233731269836426</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4670405983924866</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0002761068753898144</v>
+        <v>0.003173353848978877</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5335378646850586</v>
       </c>
       <c r="V211" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5038772821426392</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0003241225495003164</v>
+        <v>0.00087975017959252</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5323429107666016</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.8730713129043579</v>
       </c>
       <c r="W212" t="n">
-        <v>0.009277209639549255</v>
+        <v>0.1160958409309387</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5733790397644043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5357462167739868</v>
       </c>
       <c r="W213" t="n">
-        <v>0.00558468559756875</v>
+        <v>0.001416229410097003</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5270500183105469</v>
       </c>
       <c r="V214" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4933182597160339</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001189826638437808</v>
+        <v>0.001137831481173635</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.526298999786377</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5351070165634155</v>
       </c>
       <c r="W215" t="n">
-        <v>0.004626041278243065</v>
+        <v>7.758115680189803e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.529810905456543</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.53244549036026</v>
       </c>
       <c r="W216" t="n">
-        <v>0.009041138924658298</v>
+        <v>6.941037554497598e-06</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5226759910583496</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.8789214491844177</v>
       </c>
       <c r="W217" t="n">
-        <v>0.00919026043266058</v>
+        <v>0.1269108206033707</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5244178771972656</v>
       </c>
       <c r="V218" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.8849049210548401</v>
       </c>
       <c r="W218" t="n">
-        <v>0.05265993252396584</v>
+        <v>0.1299509108066559</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5259931087493896</v>
       </c>
       <c r="V219" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5353829860687256</v>
       </c>
       <c r="W219" t="n">
-        <v>0.001832192880101502</v>
+        <v>8.816979243420064e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5268080234527588</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4798071384429932</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0007721223519183695</v>
+        <v>0.002209083177149296</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5223739147186279</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.8847689032554626</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002856811974197626</v>
+        <v>0.131330132484436</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3899061679840088</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.4913914203643799</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002126761944964528</v>
+        <v>0.01029925607144833</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3939900398254395</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5479177236557007</v>
       </c>
       <c r="W223" t="n">
-        <v>0.002308128168806434</v>
+        <v>0.02369373105466366</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4019050598144531</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9481812119483948</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0001270031934836879</v>
+        <v>0.2984176278114319</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4157171249389648</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9338018298149109</v>
       </c>
       <c r="W225" t="n">
-        <v>0.003603734774515033</v>
+        <v>0.2684117555618286</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3983199596405029</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4917559623718262</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05176957696676254</v>
+        <v>0.008730286732316017</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3972129821777344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.5356352925300598</v>
       </c>
       <c r="W227" t="n">
-        <v>0.003651016624644399</v>
+        <v>0.01916073635220528</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.398716926574707</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4784822463989258</v>
       </c>
       <c r="W228" t="n">
-        <v>0.05923513323068619</v>
+        <v>0.006362506188452244</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4088289737701416</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5121830701828003</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06236226856708527</v>
+        <v>0.010682069696486</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3947978019714355</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5353922843933105</v>
       </c>
       <c r="W230" t="n">
-        <v>0.05125896632671356</v>
+        <v>0.01976680755615234</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3972208499908447</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4784778356552124</v>
       </c>
       <c r="W231" t="n">
-        <v>0.003181706415489316</v>
+        <v>0.006602697540074587</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3976678848266602</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.4905665516853333</v>
       </c>
       <c r="W232" t="n">
-        <v>0.007882891222834587</v>
+        <v>0.008630162104964256</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998022079467773</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5091742277145386</v>
       </c>
       <c r="W233" t="n">
-        <v>0.005034930538386106</v>
+        <v>0.01196223869919777</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3975799083709717</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5135257840156555</v>
       </c>
       <c r="W234" t="n">
-        <v>0.003609598148614168</v>
+        <v>0.01344344578683376</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3983488082885742</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5534183382987976</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0121803879737854</v>
+        <v>0.02404655888676643</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972029685974121</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.5480285882949829</v>
       </c>
       <c r="W236" t="n">
-        <v>0.003436972387135029</v>
+        <v>0.02274836786091328</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4005980491638184</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4797433018684387</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02339324355125427</v>
+        <v>0.006263970863074064</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3927309513092041</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4877181053161621</v>
       </c>
       <c r="W238" t="n">
-        <v>0.05225028842687607</v>
+        <v>0.00902255903929472</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4105041027069092</v>
       </c>
       <c r="V239" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4872072339057922</v>
       </c>
       <c r="W239" t="n">
-        <v>0.1133549809455872</v>
+        <v>0.005883370526134968</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.391334056854248</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.9322784543037415</v>
       </c>
       <c r="W240" t="n">
-        <v>0.001959955086931586</v>
+        <v>0.292620837688446</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3944098949432373</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.9224377870559692</v>
       </c>
       <c r="W241" t="n">
-        <v>0.01156300771981478</v>
+        <v>0.2788134515285492</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9507699012756348</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.9594534635543823</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2429282069206238</v>
+        <v>7.540425576735288e-05</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8842740058898926</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9173953533172607</v>
       </c>
       <c r="W243" t="n">
-        <v>0.09955809265375137</v>
+        <v>0.001097023603506386</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.876032829284668</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.4672231078147888</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1933592110872269</v>
+        <v>0.1671253889799118</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.879694938659668</v>
       </c>
       <c r="V245" t="n">
-        <v>0.504918098449707</v>
+        <v>0.9056743383407593</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1404576748609543</v>
+        <v>0.0006749291787855327</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9380500316619873</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4759847521781921</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08681810647249222</v>
+        <v>0.2135043293237686</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8796579837799072</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5325270891189575</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1411039084196091</v>
+        <v>0.1204998567700386</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8730499744415283</v>
       </c>
       <c r="V248" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.925942063331604</v>
       </c>
       <c r="W248" t="n">
-        <v>0.04674841836094856</v>
+        <v>0.002797573106363416</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8841078281402588</v>
       </c>
       <c r="V249" t="n">
-        <v>0.473930835723877</v>
+        <v>0.91139155626297</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1682451665401459</v>
+        <v>0.0007444018265232444</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9316799640655518</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9478321671485901</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2183747440576553</v>
+        <v>0.0002608936629258096</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9111440181732178</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.8934502005577087</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1796327829360962</v>
+        <v>0.0003130711847916245</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8924710750579834</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4782554507255554</v>
       </c>
       <c r="W252" t="n">
-        <v>0.02131336182355881</v>
+        <v>0.1715745776891708</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879033088684082</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.5479381084442139</v>
       </c>
       <c r="W253" t="n">
-        <v>0.04925558343529701</v>
+        <v>0.1096238866448402</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9373199939727783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.9288966655731201</v>
       </c>
       <c r="W254" t="n">
-        <v>0.06360983103513718</v>
+        <v>7.095246110111475e-05</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8795151710510254</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4781849980354309</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1671099215745926</v>
+        <v>0.1610659062862396</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8755490779876709</v>
       </c>
       <c r="V256" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9349595308303833</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2356147170066833</v>
+        <v>0.003529601963236928</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8784940242767334</v>
       </c>
       <c r="V257" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9276958107948303</v>
       </c>
       <c r="W257" t="n">
-        <v>0.06147994846105576</v>
+        <v>0.00242081587202847</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9273321628570557</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.8793932795524597</v>
       </c>
       <c r="W258" t="n">
-        <v>0.09383469074964523</v>
+        <v>0.002298136474564672</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9284858703613281</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5641075372695923</v>
       </c>
       <c r="W259" t="n">
-        <v>0.09163792431354523</v>
+        <v>0.1327715665102005</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>1.038738965988159</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5120665431022644</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1561368852853775</v>
+        <v>0.2773838341236115</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9360530376434326</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5355916023254395</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1349621266126633</v>
+        <v>0.1603693664073944</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.6115219593048096</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4906657934188843</v>
       </c>
       <c r="W262" t="n">
-        <v>0.0001966095878742635</v>
+        <v>0.01460621319711208</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5627081394195557</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.9205144047737122</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008471383713185787</v>
+        <v>0.1280253231525421</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5431249141693115</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4783356189727783</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0001434674923075363</v>
+        <v>0.004197652917355299</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4671159386634827</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0008824783726595342</v>
+        <v>0.003932931460440159</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.568809986114502</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.8803496956825256</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0002605298650451005</v>
+        <v>0.09705699235200882</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5278389453887939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5351461172103882</v>
       </c>
       <c r="W267" t="n">
-        <v>0.009578932076692581</v>
+        <v>5.339476047083735e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5306758880615234</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4701594710350037</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0231946911662817</v>
+        <v>0.003662236733362079</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.52907395362854</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4781673550605774</v>
       </c>
       <c r="W269" t="n">
-        <v>0.009325675666332245</v>
+        <v>0.002591481665149331</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5259721279144287</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4730931520462036</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0007395732682198286</v>
+        <v>0.00279618613421917</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5240428447723389</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.5354951620101929</v>
       </c>
       <c r="W271" t="n">
-        <v>0.001819771132431924</v>
+        <v>0.0001311555679421872</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5553741455078125</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.8970126509666443</v>
       </c>
       <c r="W272" t="n">
-        <v>0.006272092461585999</v>
+        <v>0.1167168691754341</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5266990661621094</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5480529069900513</v>
       </c>
       <c r="W273" t="n">
-        <v>0.002057159086689353</v>
+        <v>0.0004559865046758205</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5325989723205566</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4914481043815613</v>
       </c>
       <c r="W274" t="n">
-        <v>0.02416855283081532</v>
+        <v>0.001693393918685615</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5259091854095459</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4785609841346741</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0009898545686155558</v>
+        <v>0.002241852227598429</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5237808227539062</v>
       </c>
       <c r="V276" t="n">
-        <v>0.435836523771286</v>
+        <v>0.8729538321495056</v>
       </c>
       <c r="W276" t="n">
-        <v>0.007734199520200491</v>
+        <v>0.1219217926263809</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5799500942230225</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5023634433746338</v>
       </c>
       <c r="W277" t="n">
-        <v>0.004064962733536959</v>
+        <v>0.006019688211381435</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.527108907699585</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5356884598731995</v>
       </c>
       <c r="W278" t="n">
-        <v>0.004812304396182299</v>
+        <v>7.360871677519754e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5287110805511475</v>
       </c>
       <c r="V279" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.9423769116401672</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01642248034477234</v>
+        <v>0.1711194217205048</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5256500244140625</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.484555184841156</v>
       </c>
       <c r="W280" t="n">
-        <v>0.08592501282691956</v>
+        <v>0.00168878585100174</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5282859802246094</v>
       </c>
       <c r="V281" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4979040026664734</v>
       </c>
       <c r="W281" t="n">
-        <v>0.02242593467235565</v>
+        <v>0.0009230645373463631</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4666299819946289</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5639956593513489</v>
       </c>
       <c r="W282" t="n">
-        <v>0.005856814794242382</v>
+        <v>0.009480074979364872</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4045131206512451</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4780696034431458</v>
       </c>
       <c r="W283" t="n">
-        <v>0.009455913677811623</v>
+        <v>0.005410556215792894</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4036800861358643</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.8845673799514771</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1718036234378815</v>
+        <v>0.23125259578228</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4008188247680664</v>
       </c>
       <c r="V285" t="n">
-        <v>0.816550612449646</v>
+        <v>0.4796902537345886</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1728329211473465</v>
+        <v>0.006220702081918716</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4026830196380615</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.8839612603187561</v>
       </c>
       <c r="W286" t="n">
-        <v>0.04670321941375732</v>
+        <v>0.2316287457942963</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4012391567230225</v>
       </c>
       <c r="V287" t="n">
-        <v>0.473088413476944</v>
+        <v>0.9005178809165955</v>
       </c>
       <c r="W287" t="n">
-        <v>0.005162315908819437</v>
+        <v>0.2492792457342148</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4023351669311523</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.548036515712738</v>
       </c>
       <c r="W288" t="n">
-        <v>0.02280190773308277</v>
+        <v>0.02122888341546059</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4071059226989746</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.489011287689209</v>
       </c>
       <c r="W289" t="n">
-        <v>0.07081792503595352</v>
+        <v>0.006708488799631596</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972930908203125</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4780728220939636</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06539547443389893</v>
+        <v>0.006525365170091391</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016580581665039</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.9436189532279968</v>
       </c>
       <c r="W291" t="n">
-        <v>0.04815265163779259</v>
+        <v>0.293721616268158</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4093470573425293</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9469159841537476</v>
       </c>
       <c r="W292" t="n">
-        <v>0.04492545872926712</v>
+        <v>0.2889803647994995</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4002349376678467</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5093823671340942</v>
       </c>
       <c r="W293" t="n">
-        <v>0.07446438074111938</v>
+        <v>0.01191316172480583</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3994050025939941</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.489725649356842</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02833176217973232</v>
+        <v>0.008157819509506226</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V295" t="n">
-        <v>0.551414966583252</v>
+        <v>0.4674660563468933</v>
       </c>
       <c r="W295" t="n">
-        <v>0.02291043847799301</v>
+        <v>0.004544517025351524</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4001438617706299</v>
       </c>
       <c r="V296" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.5356573462486267</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0004979284130968153</v>
+        <v>0.01836390420794487</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3999428749084473</v>
       </c>
       <c r="V297" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4766494035720825</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1737290173768997</v>
+        <v>0.005883891601115465</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4028818607330322</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5097914934158325</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001097562722861767</v>
+        <v>0.0114296693354845</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4017751216888428</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4672562479972839</v>
       </c>
       <c r="W299" t="n">
-        <v>0.005589804612100124</v>
+        <v>0.004287777934223413</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.40077805519104</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.9898064732551575</v>
       </c>
       <c r="W300" t="n">
-        <v>0.08310110121965408</v>
+        <v>0.3469544649124146</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4019360542297363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.8816165328025818</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0005332281580194831</v>
+        <v>0.2300933599472046</v>
       </c>
     </row>
     <row r="302" spans="1:23">
